--- a/public/documents/customer_data.xlsx
+++ b/public/documents/customer_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\laravel_learning\20190226_TDN_Laravel\tdn_laravel_2020\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275286A-F67C-44EF-9216-7342E3B8C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5C322-E58A-4F04-AD6D-28787A4790B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
